--- a/pitcher_matchups_2025-08-19.xlsx
+++ b/pitcher_matchups_2025-08-19.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>StartTime</t>
   </si>
@@ -270,12 +270,6 @@
   </si>
   <si>
     <t>Switch</t>
-  </si>
-  <si>
-    <t>Alec Burleson (1B)
-Lars Nootbaar (LF)
-Nathan Church (LF)
-Nolan Gorman (2B)</t>
   </si>
   <si>
     <t>Brandon Nimmo (LF)
@@ -290,33 +284,6 @@
 Nathaniel Lowe (1B)
 Roman Anthony (RF)
 Wilyer Abreu (RF)</t>
-  </si>
-  <si>
-    <t>Drake Baldwin (C)
-Matt Olson (1B)
-Michael Harris II (CF)</t>
-  </si>
-  <si>
-    <t>Dalton Rushing (C)
-Freddie Freeman (1B)
-Michael Conforto (LF)
-Shohei Ohtani (TWP)</t>
-  </si>
-  <si>
-    <t>Bo Naylor (C)
-C.J. Kayfus (1B)
-Daniel Schneemann (2B)
-Kyle Manzardo (1B)
-Nolan Jones (RF)
-Steven Kwan (LF)</t>
-  </si>
-  <si>
-    <t>Francisco Alvarez (C)
-Luis Torrens (C)
-Mark Vientos (3B)
-Pete Alonso (1B)
-Starling Marte (LF)
-Tyrone Taylor (CF)</t>
   </si>
   <si>
     <t>Alex Bregman (3B)
@@ -326,15 +293,6 @@
 Nate Eaton (3B)
 Romy Gonzalez (1B)
 Trevor Story (SS)</t>
-  </si>
-  <si>
-    <t>Eli White (RF)
-Luke Williams (SS)
-Marcell Ozuna (DH)
-Nacho Alvarez Jr. (SS)
-Nick Allen (SS)
-Ronald Acuña Jr. (RF)
-Sean Murphy (C)</t>
   </si>
   <si>
     <t>Alex Call (RF)
@@ -347,19 +305,6 @@
 Will Smith (C)</t>
   </si>
   <si>
-    <t>Braxton Fulford (C)
-Brenton Doyle (CF)
-Ezequiel Tovar (SS)
-Hunter Goodman (C)
-Jordan Beck (LF)
-Kyle Farmer (2B)
-Kyle Karros (3B)
-Orlando Arcia (SS)
-Ryan Ritter (SS)
-Tyler Freeman (RF)
-Warming Bernabel (3B)</t>
-  </si>
-  <si>
     <t>Austin Hedges (C)
 David Fry (1B)
 Gabriel Arias (SS)</t>
@@ -370,11 +315,6 @@
   </si>
   <si>
     <t>Abraham Toro (1B)</t>
-  </si>
-  <si>
-    <t>Jurickson Profar (LF)
-Ozzie Albies (2B)
-Vidal Bruján (3B)</t>
   </si>
   <si>
     <t>Alex Freeland (SS)</t>
@@ -1316,7 +1256,7 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>7</formula>
+      <formula>8</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
@@ -1332,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1343,13 +1283,14 @@
   <cols>
     <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1383,158 +1324,92 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
         <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G9">
+  <conditionalFormatting sqref="A3:G6">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1548,7 +1423,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C9">
+  <conditionalFormatting sqref="C3:C6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1557,14 +1432,14 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>7</formula>
+      <formula>8</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D9">
+  <conditionalFormatting sqref="D3:D6">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1573,7 +1448,7 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
-      <formula>7</formula>
+      <formula>8</formula>
       <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
